--- a/Pivot Practice.xlsx
+++ b/Pivot Practice.xlsx
@@ -495,7 +495,7 @@
         <v>2019</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,7 +512,7 @@
         <v>2019</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,7 +529,7 @@
         <v>2019</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -648,7 +648,7 @@
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -665,7 +665,7 @@
         <v>2020</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -682,7 +682,7 @@
         <v>2020</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -699,7 +699,7 @@
         <v>2020</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -716,7 +716,7 @@
         <v>2020</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -733,7 +733,7 @@
         <v>2020</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -852,7 +852,7 @@
         <v>2021</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -869,7 +869,7 @@
         <v>2021</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -886,7 +886,7 @@
         <v>2021</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -903,7 +903,7 @@
         <v>2021</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -920,7 +920,7 @@
         <v>2021</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -937,7 +937,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1056,7 +1056,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1073,7 +1073,7 @@
         <v>2022</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1090,7 +1090,7 @@
         <v>2022</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1107,7 +1107,7 @@
         <v>2022</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1124,7 +1124,7 @@
         <v>2022</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1141,7 +1141,7 @@
         <v>2022</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1260,7 +1260,7 @@
         <v>2023</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1277,7 +1277,7 @@
         <v>2023</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1294,7 +1294,7 @@
         <v>2023</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1311,7 +1311,7 @@
         <v>2023</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
         <v>2023</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1345,7 +1345,7 @@
         <v>2023</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5">

--- a/Pivot Practice.xlsx
+++ b/Pivot Practice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="12">
   <si>
     <t>Country</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +495,7 @@
         <v>2019</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,7 +512,7 @@
         <v>2019</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,7 +529,7 @@
         <v>2019</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -648,7 +648,7 @@
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -665,7 +665,7 @@
         <v>2020</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -682,7 +682,7 @@
         <v>2020</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -699,7 +699,7 @@
         <v>2020</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -716,7 +716,7 @@
         <v>2020</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -733,7 +733,7 @@
         <v>2020</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -852,7 +852,7 @@
         <v>2021</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -869,7 +869,7 @@
         <v>2021</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -886,7 +886,7 @@
         <v>2021</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -903,7 +903,7 @@
         <v>2021</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -920,7 +920,7 @@
         <v>2021</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -937,7 +937,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1056,7 +1056,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1073,7 +1073,7 @@
         <v>2022</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1090,7 +1090,7 @@
         <v>2022</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1107,7 +1107,7 @@
         <v>2022</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1124,7 +1124,7 @@
         <v>2022</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1141,7 +1141,7 @@
         <v>2022</v>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1260,7 +1260,7 @@
         <v>2023</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1277,7 +1277,7 @@
         <v>2023</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1294,7 +1294,7 @@
         <v>2023</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1311,7 +1311,7 @@
         <v>2023</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
         <v>2023</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1345,7 +1345,7 @@
         <v>2023</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1447,6 +1447,786 @@
         <v>2023</v>
       </c>
       <c r="E61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>2024</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>2024</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>2024</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>2024</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>2024</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>2024</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>2024</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>2024</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>2024</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>2024</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>2024</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>2024</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>2025</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>2025</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>2025</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>2025</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>2025</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>2025</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>2025</v>
+      </c>
+      <c r="E85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>2026</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>2026</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>2026</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>2026</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>2026</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>2026</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>2026</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>2026</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>2026</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>2026</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>2026</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>2026</v>
+      </c>
+      <c r="E109">
         <v>7</v>
       </c>
     </row>

--- a/Pivot Practice.xlsx
+++ b/Pivot Practice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -43,13 +43,10 @@
     <t>Female</t>
   </si>
   <si>
-    <t>20-30</t>
-  </si>
-  <si>
-    <t>30-40</t>
-  </si>
-  <si>
-    <t>40-50</t>
+    <t>20-40</t>
+  </si>
+  <si>
+    <t>40-60</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +441,7 @@
         <v>2019</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>6.000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,7 +458,7 @@
         <v>2019</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -469,16 +466,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>2019</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -489,47 +486,47 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2019</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>2019</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>2019</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -537,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -546,7 +543,7 @@
         <v>2019</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -554,16 +551,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>2019</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -571,47 +568,47 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10">
         <v>11</v>
-      </c>
-      <c r="D10">
-        <v>2019</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -622,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -631,7 +628,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -639,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -648,75 +645,75 @@
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>2020</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>2020</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>2020</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>2020</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -724,390 +721,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>2020</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>2020</v>
-      </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
         <v>11</v>
-      </c>
-      <c r="D21">
-        <v>2020</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>2020</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>2020</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>2020</v>
-      </c>
-      <c r="E24">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>2020</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>2021</v>
-      </c>
-      <c r="E27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>2021</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>2021</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
-      <c r="E30">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>2021</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>2021</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>2022</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>2022</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>2022</v>
-      </c>
-      <c r="E36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>2022</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>2022</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39">
-        <v>2021</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>2022</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41">
-        <v>2021</v>
-      </c>
-      <c r="E41">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Pivot Practice.xlsx
+++ b/Pivot Practice.xlsx
@@ -441,7 +441,7 @@
         <v>2019</v>
       </c>
       <c r="E2">
-        <v>6.000000000000002</v>
+        <v>2.000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,7 +458,7 @@
         <v>2019</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1.999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,7 +475,7 @@
         <v>2019</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>19.99999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,7 +492,7 @@
         <v>2019</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>19.99999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,7 +509,7 @@
         <v>2019</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>19.99999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -526,7 +526,7 @@
         <v>2019</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>19.99999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,7 +543,7 @@
         <v>2019</v>
       </c>
       <c r="E8">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -560,7 +560,7 @@
         <v>2019</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,7 +577,7 @@
         <v>2019</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
